--- a/TOneV2/Code/TOneV2/TOne.WhS.SupplierPriceList.Web/WhS_SupplierPriceList/Template/Supplier Price List Sample.xlsx
+++ b/TOneV2/Code/TOneV2/TOne.WhS.SupplierPriceList.Web/WhS_SupplierPriceList/Template/Supplier Price List Sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samer.haidar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFS\TOneV2\Code\TOneV2\TOne.WhS.SupplierPriceList.Web\WhS_SupplierPriceList\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Destination</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Aruba-Mobile</t>
+  </si>
+  <si>
+    <t>EED</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +415,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
